--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_16ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_16ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1652,28 +1652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>285.0020414704362</v>
+        <v>402.4642967146164</v>
       </c>
       <c r="AB2" t="n">
-        <v>389.9523665425352</v>
+        <v>550.6694062365917</v>
       </c>
       <c r="AC2" t="n">
-        <v>352.7358599812987</v>
+        <v>498.1142909747364</v>
       </c>
       <c r="AD2" t="n">
-        <v>285002.0414704361</v>
+        <v>402464.2967146164</v>
       </c>
       <c r="AE2" t="n">
-        <v>389952.3665425353</v>
+        <v>550669.4062365917</v>
       </c>
       <c r="AF2" t="n">
         <v>6.615364165508563e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.72395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>352735.8599812987</v>
+        <v>498114.2909747364</v>
       </c>
     </row>
     <row r="3">
@@ -1758,28 +1758,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>229.2683998416587</v>
+        <v>327.1536125451451</v>
       </c>
       <c r="AB3" t="n">
-        <v>313.6951392711591</v>
+        <v>447.626005683024</v>
       </c>
       <c r="AC3" t="n">
-        <v>283.7565154531059</v>
+        <v>404.9052079476802</v>
       </c>
       <c r="AD3" t="n">
-        <v>229268.3998416587</v>
+        <v>327153.6125451451</v>
       </c>
       <c r="AE3" t="n">
-        <v>313695.1392711591</v>
+        <v>447626.005683024</v>
       </c>
       <c r="AF3" t="n">
         <v>7.99505419290233e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.63541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>283756.5154531059</v>
+        <v>404905.2079476802</v>
       </c>
     </row>
     <row r="4">
@@ -1864,28 +1864,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>229.4531583464461</v>
+        <v>327.3383710499324</v>
       </c>
       <c r="AB4" t="n">
-        <v>313.947934008379</v>
+        <v>447.878800420244</v>
       </c>
       <c r="AC4" t="n">
-        <v>283.9851838154052</v>
+        <v>405.1338763099796</v>
       </c>
       <c r="AD4" t="n">
-        <v>229453.1583464461</v>
+        <v>327338.3710499324</v>
       </c>
       <c r="AE4" t="n">
-        <v>313947.934008379</v>
+        <v>447878.800420244</v>
       </c>
       <c r="AF4" t="n">
         <v>7.988605353441769e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.63541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>283985.1838154052</v>
+        <v>405133.8763099796</v>
       </c>
     </row>
   </sheetData>
@@ -2161,28 +2161,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>250.5823754767693</v>
+        <v>356.9669309014764</v>
       </c>
       <c r="AB2" t="n">
-        <v>342.8578610413443</v>
+        <v>488.4179031289353</v>
       </c>
       <c r="AC2" t="n">
-        <v>310.1359879876908</v>
+        <v>441.8039839531414</v>
       </c>
       <c r="AD2" t="n">
-        <v>250582.3754767693</v>
+        <v>356966.9309014764</v>
       </c>
       <c r="AE2" t="n">
-        <v>342857.8610413443</v>
+        <v>488417.9031289353</v>
       </c>
       <c r="AF2" t="n">
         <v>8.086293470739907e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.25</v>
       </c>
       <c r="AH2" t="n">
-        <v>310135.9879876908</v>
+        <v>441803.9839531414</v>
       </c>
     </row>
     <row r="3">
@@ -2267,28 +2267,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>224.3964066922265</v>
+        <v>321.1004129668252</v>
       </c>
       <c r="AB3" t="n">
-        <v>307.0290633069411</v>
+        <v>439.3437509716488</v>
       </c>
       <c r="AC3" t="n">
-        <v>277.7266404230143</v>
+        <v>397.4134000017411</v>
       </c>
       <c r="AD3" t="n">
-        <v>224396.4066922265</v>
+        <v>321100.4129668252</v>
       </c>
       <c r="AE3" t="n">
-        <v>307029.0633069411</v>
+        <v>439343.7509716488</v>
       </c>
       <c r="AF3" t="n">
         <v>8.833988751862473e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.42708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>277726.6404230143</v>
+        <v>397413.4000017411</v>
       </c>
     </row>
   </sheetData>
@@ -2564,28 +2564,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>222.1734710334649</v>
+        <v>315.6609686230285</v>
       </c>
       <c r="AB2" t="n">
-        <v>303.9875446696251</v>
+        <v>431.901263249118</v>
       </c>
       <c r="AC2" t="n">
-        <v>274.9754000556446</v>
+        <v>390.6812128618515</v>
       </c>
       <c r="AD2" t="n">
-        <v>222173.4710334649</v>
+        <v>315660.9686230285</v>
       </c>
       <c r="AE2" t="n">
-        <v>303987.5446696251</v>
+        <v>431901.263249118</v>
       </c>
       <c r="AF2" t="n">
         <v>1.187139042896423e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.18229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>274975.4000556446</v>
+        <v>390681.2128618515</v>
       </c>
     </row>
   </sheetData>
@@ -2861,28 +2861,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>216.0197040415744</v>
+        <v>310.7439200998807</v>
       </c>
       <c r="AB2" t="n">
-        <v>295.5676891862855</v>
+        <v>425.1735405348762</v>
       </c>
       <c r="AC2" t="n">
-        <v>267.3591237622908</v>
+        <v>384.5955745610388</v>
       </c>
       <c r="AD2" t="n">
-        <v>216019.7040415744</v>
+        <v>310743.9200998807</v>
       </c>
       <c r="AE2" t="n">
-        <v>295567.6891862855</v>
+        <v>425173.5405348762</v>
       </c>
       <c r="AF2" t="n">
         <v>1.071879175611237e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.375</v>
       </c>
       <c r="AH2" t="n">
-        <v>267359.1237622908</v>
+        <v>384595.5745610388</v>
       </c>
     </row>
   </sheetData>
@@ -3158,28 +3158,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>228.6813620631497</v>
+        <v>330.3435519396162</v>
       </c>
       <c r="AB2" t="n">
-        <v>312.8919282843246</v>
+        <v>451.9906214927333</v>
       </c>
       <c r="AC2" t="n">
-        <v>283.0299617955408</v>
+        <v>408.8532709502877</v>
       </c>
       <c r="AD2" t="n">
-        <v>228681.3620631497</v>
+        <v>330343.5519396163</v>
       </c>
       <c r="AE2" t="n">
-        <v>312891.9282843246</v>
+        <v>451990.6214927334</v>
       </c>
       <c r="AF2" t="n">
         <v>1.296186413523043e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>283029.9617955408</v>
+        <v>408853.2709502876</v>
       </c>
     </row>
   </sheetData>
@@ -3455,28 +3455,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>252.7093675645913</v>
+        <v>359.4060980252037</v>
       </c>
       <c r="AB2" t="n">
-        <v>345.7681054521693</v>
+        <v>491.7552791960778</v>
       </c>
       <c r="AC2" t="n">
-        <v>312.7684827565013</v>
+        <v>444.8228455324725</v>
       </c>
       <c r="AD2" t="n">
-        <v>252709.3675645913</v>
+        <v>359406.0980252037</v>
       </c>
       <c r="AE2" t="n">
-        <v>345768.1054521693</v>
+        <v>491755.2791960778</v>
       </c>
       <c r="AF2" t="n">
         <v>7.802978818522465e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>312768.4827565013</v>
+        <v>444822.8455324725</v>
       </c>
     </row>
     <row r="3">
@@ -3561,28 +3561,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>225.9217910361413</v>
+        <v>323.0110780244117</v>
       </c>
       <c r="AB3" t="n">
-        <v>309.116161461492</v>
+        <v>441.9580071960319</v>
       </c>
       <c r="AC3" t="n">
-        <v>279.6145488589561</v>
+        <v>399.7781552812007</v>
       </c>
       <c r="AD3" t="n">
-        <v>225921.7910361413</v>
+        <v>323011.0780244117</v>
       </c>
       <c r="AE3" t="n">
-        <v>309116.161461492</v>
+        <v>441958.0071960319</v>
       </c>
       <c r="AF3" t="n">
         <v>8.575277638354454e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.53125</v>
       </c>
       <c r="AH3" t="n">
-        <v>279614.5488589561</v>
+        <v>399778.1552812007</v>
       </c>
     </row>
   </sheetData>
@@ -3858,28 +3858,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>236.8352392192823</v>
+        <v>337.8526214059943</v>
       </c>
       <c r="AB2" t="n">
-        <v>324.0484227330116</v>
+        <v>462.2648616133963</v>
       </c>
       <c r="AC2" t="n">
-        <v>293.121696072287</v>
+        <v>418.146952013821</v>
       </c>
       <c r="AD2" t="n">
-        <v>236835.2392192823</v>
+        <v>337852.6214059943</v>
       </c>
       <c r="AE2" t="n">
-        <v>324048.4227330117</v>
+        <v>462264.8616133963</v>
       </c>
       <c r="AF2" t="n">
         <v>1.350506489081395e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.23958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>293121.696072287</v>
+        <v>418146.952013821</v>
       </c>
     </row>
   </sheetData>
@@ -4155,28 +4155,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>221.4341296175654</v>
+        <v>317.3185674534987</v>
       </c>
       <c r="AB2" t="n">
-        <v>302.9759451269508</v>
+        <v>434.1692630970666</v>
       </c>
       <c r="AC2" t="n">
-        <v>274.0603461535338</v>
+        <v>392.7327579874697</v>
       </c>
       <c r="AD2" t="n">
-        <v>221434.1296175655</v>
+        <v>317318.5674534987</v>
       </c>
       <c r="AE2" t="n">
-        <v>302975.9451269507</v>
+        <v>434169.2630970665</v>
       </c>
       <c r="AF2" t="n">
         <v>9.49309650494512e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.66145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>274060.3461535338</v>
+        <v>392732.7579874697</v>
       </c>
     </row>
     <row r="3">
@@ -4261,28 +4261,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>220.7024668642148</v>
+        <v>316.4854194736627</v>
       </c>
       <c r="AB3" t="n">
-        <v>301.9748518691342</v>
+        <v>433.0293132751603</v>
       </c>
       <c r="AC3" t="n">
-        <v>273.1547958311997</v>
+        <v>391.7016033766365</v>
       </c>
       <c r="AD3" t="n">
-        <v>220702.4668642147</v>
+        <v>316485.4194736627</v>
       </c>
       <c r="AE3" t="n">
-        <v>301974.8518691342</v>
+        <v>433029.3132751603</v>
       </c>
       <c r="AF3" t="n">
         <v>9.612202106663671e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.42708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>273154.7958311997</v>
+        <v>391701.6033766365</v>
       </c>
     </row>
   </sheetData>
@@ -4558,28 +4558,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>249.1348605978722</v>
+        <v>355.1953701391195</v>
       </c>
       <c r="AB2" t="n">
-        <v>340.877307324189</v>
+        <v>485.9939755381337</v>
       </c>
       <c r="AC2" t="n">
-        <v>308.3444555375755</v>
+        <v>439.6113926096021</v>
       </c>
       <c r="AD2" t="n">
-        <v>249134.8605978722</v>
+        <v>355195.3701391195</v>
       </c>
       <c r="AE2" t="n">
-        <v>340877.3073241889</v>
+        <v>485993.9755381337</v>
       </c>
       <c r="AF2" t="n">
         <v>8.335303938460135e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.14583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>308344.4555375755</v>
+        <v>439611.3926096021</v>
       </c>
     </row>
     <row r="3">
@@ -4664,28 +4664,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>223.431619953494</v>
+        <v>319.9425242877962</v>
       </c>
       <c r="AB3" t="n">
-        <v>305.708999527621</v>
+        <v>437.7594765985579</v>
       </c>
       <c r="AC3" t="n">
-        <v>276.5325616780708</v>
+        <v>395.980326551275</v>
       </c>
       <c r="AD3" t="n">
-        <v>223431.619953494</v>
+        <v>319942.5242877962</v>
       </c>
       <c r="AE3" t="n">
-        <v>305708.999527621</v>
+        <v>437759.4765985579</v>
       </c>
       <c r="AF3" t="n">
         <v>9.024339847232702e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.53125</v>
       </c>
       <c r="AH3" t="n">
-        <v>276532.5616780708</v>
+        <v>395980.326551275</v>
       </c>
     </row>
   </sheetData>
@@ -4961,28 +4961,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>270.3938118317693</v>
+        <v>387.5136661342428</v>
       </c>
       <c r="AB2" t="n">
-        <v>369.964742281304</v>
+        <v>530.2132939012539</v>
       </c>
       <c r="AC2" t="n">
-        <v>334.6558265267525</v>
+        <v>479.6104812903493</v>
       </c>
       <c r="AD2" t="n">
-        <v>270393.8118317693</v>
+        <v>387513.6661342428</v>
       </c>
       <c r="AE2" t="n">
-        <v>369964.742281304</v>
+        <v>530213.293901254</v>
       </c>
       <c r="AF2" t="n">
         <v>7.007902192616718e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.86458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>334655.8265267525</v>
+        <v>479610.4812903493</v>
       </c>
     </row>
     <row r="3">
@@ -5067,28 +5067,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>228.6747057642113</v>
+        <v>326.3030555319261</v>
       </c>
       <c r="AB3" t="n">
-        <v>312.8828208424619</v>
+        <v>446.4622360536107</v>
       </c>
       <c r="AC3" t="n">
-        <v>283.021723555147</v>
+        <v>403.8525068583372</v>
       </c>
       <c r="AD3" t="n">
-        <v>228674.7057642113</v>
+        <v>326303.0555319261</v>
       </c>
       <c r="AE3" t="n">
-        <v>312882.8208424619</v>
+        <v>446462.2360536107</v>
       </c>
       <c r="AF3" t="n">
         <v>8.125400938148171e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.71354166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>283021.7235551471</v>
+        <v>403852.5068583372</v>
       </c>
     </row>
   </sheetData>
@@ -5364,28 +5364,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>217.7517810409887</v>
+        <v>312.8477157065668</v>
       </c>
       <c r="AB2" t="n">
-        <v>297.9375933507272</v>
+        <v>428.0520464968558</v>
       </c>
       <c r="AC2" t="n">
-        <v>269.5028475994603</v>
+        <v>387.1993599540156</v>
       </c>
       <c r="AD2" t="n">
-        <v>217751.7810409887</v>
+        <v>312847.7157065668</v>
       </c>
       <c r="AE2" t="n">
-        <v>297937.5933507272</v>
+        <v>428052.0464968559</v>
       </c>
       <c r="AF2" t="n">
         <v>1.028760407529522e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.42708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>269502.8475994603</v>
+        <v>387199.3599540156</v>
       </c>
     </row>
   </sheetData>
@@ -5661,28 +5661,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>213.9471235202641</v>
+        <v>317.28905973782</v>
       </c>
       <c r="AB2" t="n">
-        <v>292.7318930812307</v>
+        <v>434.1288893386864</v>
       </c>
       <c r="AC2" t="n">
-        <v>264.7939720574366</v>
+        <v>392.6962374439245</v>
       </c>
       <c r="AD2" t="n">
-        <v>213947.1235202641</v>
+        <v>317289.05973782</v>
       </c>
       <c r="AE2" t="n">
-        <v>292731.8930812307</v>
+        <v>434128.8893386864</v>
       </c>
       <c r="AF2" t="n">
         <v>1.142489453341266e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.86979166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>264793.9720574367</v>
+        <v>392696.2374439245</v>
       </c>
     </row>
   </sheetData>
@@ -9163,28 +9163,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>220.5762670296968</v>
+        <v>322.907743205094</v>
       </c>
       <c r="AB2" t="n">
-        <v>301.802179688003</v>
+        <v>441.8166199374309</v>
       </c>
       <c r="AC2" t="n">
-        <v>272.9986032406887</v>
+        <v>399.6502618241224</v>
       </c>
       <c r="AD2" t="n">
-        <v>220576.2670296968</v>
+        <v>322907.743205094</v>
       </c>
       <c r="AE2" t="n">
-        <v>301802.179688003</v>
+        <v>441816.6199374309</v>
       </c>
       <c r="AF2" t="n">
         <v>1.24356072846732e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.52083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>272998.6032406887</v>
+        <v>399650.2618241224</v>
       </c>
     </row>
   </sheetData>
@@ -9460,28 +9460,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>254.4110860301775</v>
+        <v>363.7563516487436</v>
       </c>
       <c r="AB2" t="n">
-        <v>348.0964717313034</v>
+        <v>497.7074881234501</v>
       </c>
       <c r="AC2" t="n">
-        <v>314.8746330258382</v>
+        <v>450.2069839937942</v>
       </c>
       <c r="AD2" t="n">
-        <v>254411.0860301775</v>
+        <v>363756.3516487436</v>
       </c>
       <c r="AE2" t="n">
-        <v>348096.4717313034</v>
+        <v>497707.4881234501</v>
       </c>
       <c r="AF2" t="n">
         <v>1.395638294569729e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>314874.6330258382</v>
+        <v>450206.9839937941</v>
       </c>
     </row>
   </sheetData>
@@ -9757,28 +9757,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>235.8237947679081</v>
+        <v>341.6144164635193</v>
       </c>
       <c r="AB2" t="n">
-        <v>322.6645198128622</v>
+        <v>467.4119155697871</v>
       </c>
       <c r="AC2" t="n">
-        <v>291.8698709045162</v>
+        <v>422.8027783645496</v>
       </c>
       <c r="AD2" t="n">
-        <v>235823.7947679081</v>
+        <v>341614.4164635193</v>
       </c>
       <c r="AE2" t="n">
-        <v>322664.5198128622</v>
+        <v>467411.9155697871</v>
       </c>
       <c r="AF2" t="n">
         <v>8.817940850673046e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>291869.8709045162</v>
+        <v>422802.7783645496</v>
       </c>
     </row>
     <row r="3">
@@ -9863,28 +9863,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>222.0249341506025</v>
+        <v>318.127800846292</v>
       </c>
       <c r="AB3" t="n">
-        <v>303.7843099535081</v>
+        <v>435.276491925944</v>
       </c>
       <c r="AC3" t="n">
-        <v>274.7915617755919</v>
+        <v>393.7343144509245</v>
       </c>
       <c r="AD3" t="n">
-        <v>222024.9341506026</v>
+        <v>318127.800846292</v>
       </c>
       <c r="AE3" t="n">
-        <v>303784.3099535081</v>
+        <v>435276.491925944</v>
       </c>
       <c r="AF3" t="n">
         <v>9.325638999143564e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.42708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>274791.5617755919</v>
+        <v>393734.3144509245</v>
       </c>
     </row>
   </sheetData>
@@ -10160,28 +10160,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>265.8371904289208</v>
+        <v>372.8694873437755</v>
       </c>
       <c r="AB2" t="n">
-        <v>363.7301718539779</v>
+        <v>510.1764824245647</v>
       </c>
       <c r="AC2" t="n">
-        <v>329.016274750736</v>
+        <v>461.4859549791538</v>
       </c>
       <c r="AD2" t="n">
-        <v>265837.1904289208</v>
+        <v>372869.4873437755</v>
       </c>
       <c r="AE2" t="n">
-        <v>363730.171853978</v>
+        <v>510176.4824245647</v>
       </c>
       <c r="AF2" t="n">
         <v>7.433832770483213e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.03125</v>
       </c>
       <c r="AH2" t="n">
-        <v>329016.274750736</v>
+        <v>461485.9549791538</v>
       </c>
     </row>
     <row r="3">
@@ -10266,28 +10266,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>227.1625642041469</v>
+        <v>324.525852133749</v>
       </c>
       <c r="AB3" t="n">
-        <v>310.8138420490054</v>
+        <v>444.0305879595444</v>
       </c>
       <c r="AC3" t="n">
-        <v>281.1502051939074</v>
+        <v>401.652931845529</v>
       </c>
       <c r="AD3" t="n">
-        <v>227162.5642041469</v>
+        <v>324525.852133749</v>
       </c>
       <c r="AE3" t="n">
-        <v>310813.8420490054</v>
+        <v>444030.5879595444</v>
       </c>
       <c r="AF3" t="n">
         <v>8.354800200956913e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.609375</v>
       </c>
       <c r="AH3" t="n">
-        <v>281150.2051939074</v>
+        <v>401652.931845529</v>
       </c>
     </row>
   </sheetData>
@@ -10563,28 +10563,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>291.2909901837422</v>
+        <v>426.7018651310187</v>
       </c>
       <c r="AB2" t="n">
-        <v>398.5571836209164</v>
+        <v>583.8323166299656</v>
       </c>
       <c r="AC2" t="n">
-        <v>360.5194453946559</v>
+        <v>528.1121797446037</v>
       </c>
       <c r="AD2" t="n">
-        <v>291290.9901837423</v>
+        <v>426701.8651310187</v>
       </c>
       <c r="AE2" t="n">
-        <v>398557.1836209164</v>
+        <v>583832.3166299656</v>
       </c>
       <c r="AF2" t="n">
         <v>1.383387296960603e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.72395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>360519.4453946559</v>
+        <v>528112.1797446037</v>
       </c>
     </row>
   </sheetData>
@@ -10860,28 +10860,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>215.3116295396553</v>
+        <v>309.7427081448033</v>
       </c>
       <c r="AB2" t="n">
-        <v>294.598870414718</v>
+        <v>423.8036381675852</v>
       </c>
       <c r="AC2" t="n">
-        <v>266.4827676945357</v>
+        <v>383.356413753012</v>
       </c>
       <c r="AD2" t="n">
-        <v>215311.6295396553</v>
+        <v>309742.7081448033</v>
       </c>
       <c r="AE2" t="n">
-        <v>294598.870414718</v>
+        <v>423803.6381675852</v>
       </c>
       <c r="AF2" t="n">
         <v>1.100732378141817e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.6875</v>
       </c>
       <c r="AH2" t="n">
-        <v>266482.7676945357</v>
+        <v>383356.413753012</v>
       </c>
     </row>
   </sheetData>
@@ -11157,28 +11157,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>219.1931643464332</v>
+        <v>314.6411586111726</v>
       </c>
       <c r="AB2" t="n">
-        <v>299.9097575785789</v>
+        <v>430.5059142000542</v>
       </c>
       <c r="AC2" t="n">
-        <v>271.2867912413563</v>
+        <v>389.4190339676458</v>
       </c>
       <c r="AD2" t="n">
-        <v>219193.1643464332</v>
+        <v>314641.1586111726</v>
       </c>
       <c r="AE2" t="n">
-        <v>299909.7575785789</v>
+        <v>430505.9142000542</v>
       </c>
       <c r="AF2" t="n">
         <v>9.930574863346983e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.42708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>271286.7912413563</v>
+        <v>389419.0339676458</v>
       </c>
     </row>
     <row r="3">
@@ -11263,28 +11263,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>219.3238704628171</v>
+        <v>314.7718647275565</v>
       </c>
       <c r="AB3" t="n">
-        <v>300.0885954533621</v>
+        <v>430.6847520748375</v>
       </c>
       <c r="AC3" t="n">
-        <v>271.4485610803707</v>
+        <v>389.5808038066604</v>
       </c>
       <c r="AD3" t="n">
-        <v>219323.8704628171</v>
+        <v>314771.8647275565</v>
       </c>
       <c r="AE3" t="n">
-        <v>300088.5954533621</v>
+        <v>430684.7520748376</v>
       </c>
       <c r="AF3" t="n">
         <v>9.935018471214957e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.40104166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>271448.5610803707</v>
+        <v>389580.8038066603</v>
       </c>
     </row>
   </sheetData>
